--- a/Tables/Table S03.xlsx
+++ b/Tables/Table S03.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenup\Dropbox\03-Trabalho\01-Science\01-Artigos sendo Escritos\Sucesso das Cutias\GitHub Repo\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caio\Dropbox\03-Trabalho\01-Science\01-Artigos sendo Escritos\02-Aceitos\Sucesso das Cutias\GitHub Repo\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -52,7 +52,6 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <vertAlign val="subscript"/>
         <sz val="12"/>
         <color theme="1"/>
@@ -68,7 +67,6 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <vertAlign val="subscript"/>
         <sz val="12"/>
         <color theme="1"/>
@@ -84,7 +82,6 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <i/>
         <vertAlign val="subscript"/>
         <sz val="12"/>
@@ -121,14 +118,12 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Cambria"/>
       <family val="1"/>
     </font>
     <font>
-      <b/>
       <i/>
       <sz val="12"/>
       <color theme="1"/>
@@ -136,7 +131,6 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
       <vertAlign val="subscript"/>
       <sz val="12"/>
       <color theme="1"/>
@@ -144,7 +138,6 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
       <i/>
       <vertAlign val="subscript"/>
       <sz val="12"/>
@@ -487,7 +480,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
